--- a/IPEDS Data.xlsx
+++ b/IPEDS Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Google Drive (sanaa.rafique@utexas.edu)\LBJ School of Public Affairs\Spring 2019\Data Management with Python\Take Home Assignment 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="252">
   <si>
     <t>Abilene Christian University</t>
   </si>
@@ -456,9 +456,6 @@
     <t>White12</t>
   </si>
   <si>
-    <t>ZIP</t>
-  </si>
-  <si>
     <t>79699</t>
   </si>
   <si>
@@ -760,6 +757,24 @@
   </si>
   <si>
     <t>75708</t>
+  </si>
+  <si>
+    <t>ZIP_NEW</t>
+  </si>
+  <si>
+    <t>Avg_enroll_W_12-17</t>
+  </si>
+  <si>
+    <t>Avg_enroll_B_12-17</t>
+  </si>
+  <si>
+    <t>Avg_enroll_H_12-17</t>
+  </si>
+  <si>
+    <t>Avg_enroll_A_12-17</t>
+  </si>
+  <si>
+    <t>Avg_enroll_12-17</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE113"/>
+  <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK108" sqref="AK108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1586,9 +1601,13 @@
     <col min="4" max="4" width="39.1796875" style="1" customWidth="1"/>
     <col min="5" max="11" width="18.6328125" style="1" customWidth="1"/>
     <col min="12" max="31" width="20.6328125" customWidth="1"/>
+    <col min="32" max="32" width="23.36328125" customWidth="1"/>
+    <col min="33" max="33" width="17.7265625" customWidth="1"/>
+    <col min="34" max="35" width="16" customWidth="1"/>
+    <col min="36" max="36" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>119</v>
@@ -1682,8 +1701,23 @@
       <c r="AE1" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>222178</v>
       </c>
@@ -1697,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
         <v>-99.709796999999995</v>
@@ -1777,8 +1811,28 @@
       <c r="AE2">
         <v>72</v>
       </c>
+      <c r="AF2">
+        <f>(K2+O2+S2+W2+AA2+AE2)/6</f>
+        <v>66</v>
+      </c>
+      <c r="AG2">
+        <f>(L2+P2+T2+X2+AB2+AF2)/6</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="AH2">
+        <f>(M2+Q2+U2+Y2+AC2+AG2)/6</f>
+        <v>9.6388888888888893</v>
+      </c>
+      <c r="AI2">
+        <f>(N2+R2+V2+Z2+AD2+AH2)/6</f>
+        <v>12.273148148148147</v>
+      </c>
+      <c r="AJ2">
+        <f>SUM(H2:AE2)/COUNT(H2:AE2)</f>
+        <v>22.541666666666668</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>222628</v>
       </c>
@@ -1792,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="1">
         <v>-96.653028000000006</v>
@@ -1872,8 +1926,28 @@
       <c r="AE3">
         <v>49</v>
       </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF66" si="0">(K3+O3+S3+W3+AA3+AE3)/6</f>
+        <v>47.666666666666664</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG66" si="1">(L3+P3+T3+X3+AB3+AF3)/6</f>
+        <v>16.277777777777775</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH66" si="2">(M3+Q3+U3+Y3+AC3+AG3)/6</f>
+        <v>27.87962962962963</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI66" si="3">(N3+R3+V3+Z3+AD3+AH3)/6</f>
+        <v>11.479938271604938</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ66" si="4">SUM(H3:AE3)/COUNT(H3:AE3)</f>
+        <v>23.791666666666668</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>222831</v>
       </c>
@@ -1887,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1">
         <v>-100.465051</v>
@@ -1967,8 +2041,28 @@
       <c r="AE4">
         <v>58</v>
       </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>54.833333333333336</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="1"/>
+        <v>9.9722222222222232</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="2"/>
+        <v>7.8287037037037033</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="3"/>
+        <v>25.304783950617281</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="4"/>
+        <v>23.125</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>222877</v>
       </c>
@@ -1982,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1">
         <v>-97.156024000000002</v>
@@ -2062,8 +2156,28 @@
       <c r="AE5">
         <v>68</v>
       </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>63.666666666666664</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>10.944444444444443</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="2"/>
+        <v>18.824074074074073</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="3"/>
+        <v>12.137345679012347</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="4"/>
+        <v>24.208333333333332</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>222983</v>
       </c>
@@ -2077,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1">
         <v>-96.598771999999997</v>
@@ -2157,8 +2271,28 @@
       <c r="AE6">
         <v>63</v>
       </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>55.333333333333336</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="1"/>
+        <v>20.722222222222225</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="2"/>
+        <v>8.7870370370370381</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="3"/>
+        <v>15.79783950617284</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="4"/>
+        <v>23.375</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>223001</v>
       </c>
@@ -2172,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>-97.737752</v>
@@ -2252,8 +2386,28 @@
       <c r="AE7">
         <v>79</v>
       </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>80.5</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="1"/>
+        <v>14.916666666666666</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="2"/>
+        <v>10.986111111111112</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="3"/>
+        <v>5.497685185185186</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="4"/>
+        <v>24.083333333333332</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>223117</v>
       </c>
@@ -2267,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1">
         <v>-95.255523999999994</v>
@@ -2347,8 +2501,28 @@
       <c r="AE8">
         <v>44</v>
       </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="1"/>
+        <v>12.416666666666666</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>24.236111111111111</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="3"/>
+        <v>8.539351851851853</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="4"/>
+        <v>23.166666666666668</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>223223</v>
       </c>
@@ -2362,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1">
         <v>-95.395742999999996</v>
@@ -2442,8 +2616,28 @@
       <c r="AE9">
         <v>45</v>
       </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>46.166666666666664</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="1"/>
+        <v>28.361111111111111</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>8.226851851851853</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="3"/>
+        <v>10.037808641975309</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="4"/>
+        <v>21.375</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>223232</v>
       </c>
@@ -2457,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>-97.117641000000006</v>
@@ -2537,8 +2731,28 @@
       <c r="AE10">
         <v>65</v>
       </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>64.333333333333329</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>15.722222222222221</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>8.4537037037037042</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="3"/>
+        <v>12.408950617283951</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="4"/>
+        <v>22.625</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>223463</v>
       </c>
@@ -2552,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1">
         <v>-96.654111999999998</v>
@@ -2632,8 +2846,28 @@
       <c r="AE11">
         <v>20</v>
       </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="1"/>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>26.092592592592592</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="3"/>
+        <v>42.01543209876543</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>223506</v>
       </c>
@@ -2647,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1">
         <v>-95.409003999999996</v>
@@ -2727,8 +2961,28 @@
       <c r="AE12">
         <v>53</v>
       </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="1"/>
+        <v>9.2777777777777768</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>7.3796296296296298</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="3"/>
+        <v>31.396604938271604</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="4"/>
+        <v>23.833333333333332</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>224004</v>
       </c>
@@ -2742,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1">
         <v>-97.836247</v>
@@ -2822,8 +3076,28 @@
       <c r="AE13">
         <v>49</v>
       </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>15.111111111111112</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="3"/>
+        <v>20.685185185185187</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="4"/>
+        <v>21.75</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>224147</v>
       </c>
@@ -2837,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="1">
         <v>-97.323949999999996</v>
@@ -2917,8 +3191,28 @@
       <c r="AE14">
         <v>42</v>
       </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>39.166666666666664</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>8.5277777777777768</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>6.0879629629629628</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="3"/>
+        <v>38.014660493827158</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="4"/>
+        <v>23.125</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>224226</v>
       </c>
@@ -2932,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="1">
         <v>-96.947006000000002</v>
@@ -3012,8 +3306,28 @@
       <c r="AE15">
         <v>57</v>
       </c>
+      <c r="AF15">
+        <f t="shared" si="0"/>
+        <v>54.833333333333336</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>10.805555555555557</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>18.300925925925927</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="3"/>
+        <v>12.883487654320987</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="4"/>
+        <v>22.083333333333332</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>224244</v>
       </c>
@@ -3027,7 +3341,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1">
         <v>-96.887124</v>
@@ -3107,8 +3421,28 @@
       <c r="AE16">
         <v>49</v>
       </c>
+      <c r="AF16">
+        <f t="shared" si="0"/>
+        <v>46.833333333333336</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="1"/>
+        <v>7.9722222222222223</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>23.49537037037037</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="3"/>
+        <v>17.749228395061728</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="4"/>
+        <v>22.416666666666668</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>224305</v>
       </c>
@@ -3122,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="1">
         <v>-96.779956999999996</v>
@@ -3202,8 +3536,28 @@
       <c r="AE17">
         <v>59</v>
       </c>
+      <c r="AF17">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="1"/>
+        <v>16.388888888888889</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="2"/>
+        <v>12.064814814814815</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="3"/>
+        <v>6.0108024691358031</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="4"/>
+        <v>20.583333333333332</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>224323</v>
       </c>
@@ -3217,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1">
         <v>-96.921572999999995</v>
@@ -3297,8 +3651,28 @@
       <c r="AE18">
         <v>59</v>
       </c>
+      <c r="AF18">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="2"/>
+        <v>8.7083333333333339</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="3"/>
+        <v>14.451388888888888</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="4"/>
+        <v>21.541666666666668</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>224527</v>
       </c>
@@ -3312,7 +3686,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="1">
         <v>-94.374487999999999</v>
@@ -3392,8 +3766,28 @@
       <c r="AE19">
         <v>62</v>
       </c>
+      <c r="AF19">
+        <f t="shared" si="0"/>
+        <v>62.833333333333336</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="1"/>
+        <v>10.638888888888889</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="2"/>
+        <v>19.106481481481481</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="3"/>
+        <v>11.851080246913581</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="4"/>
+        <v>23.458333333333332</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>224545</v>
       </c>
@@ -3407,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="1">
         <v>-94.103617</v>
@@ -3487,8 +3881,28 @@
       <c r="AE20">
         <v>70</v>
       </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>65.833333333333329</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="1"/>
+        <v>11.972222222222221</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="2"/>
+        <v>15.328703703703704</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="3"/>
+        <v>11.054783950617285</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="4"/>
+        <v>23.416666666666668</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>224554</v>
       </c>
@@ -3502,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1">
         <v>-95.908450999999999</v>
@@ -3582,8 +3996,28 @@
       <c r="AE21">
         <v>55</v>
       </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="1"/>
+        <v>10.944444444444443</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>17.824074074074073</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="3"/>
+        <v>14.804012345679013</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="4"/>
+        <v>21.958333333333332</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>224712</v>
       </c>
@@ -3597,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1">
         <v>-97.732659999999996</v>
@@ -3677,8 +4111,28 @@
       <c r="AE22">
         <v>94</v>
       </c>
+      <c r="AF22">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="1"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="2"/>
+        <v>6.3611111111111107</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="3"/>
+        <v>4.8935185185185182</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="4"/>
+        <v>23.833333333333332</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>225201</v>
       </c>
@@ -3692,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1">
         <v>-98.568625999999995</v>
@@ -3772,8 +4226,28 @@
       <c r="AE23">
         <v>27</v>
       </c>
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="1"/>
+        <v>7.1388888888888884</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="2"/>
+        <v>10.856481481481481</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="3"/>
+        <v>43.642746913580247</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="4"/>
+        <v>23.125</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>225247</v>
       </c>
@@ -3787,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1">
         <v>-99.735640000000004</v>
@@ -3867,8 +4341,28 @@
       <c r="AE24">
         <v>68</v>
       </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>67.833333333333329</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="1"/>
+        <v>12.805555555555555</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="2"/>
+        <v>7.8009259259259265</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="3"/>
+        <v>13.466820987654321</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="4"/>
+        <v>22.958333333333332</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>225399</v>
       </c>
@@ -3882,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" s="1">
         <v>-95.515953999999994</v>
@@ -3962,8 +4456,28 @@
       <c r="AE25">
         <v>30</v>
       </c>
+      <c r="AF25">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="1"/>
+        <v>13.222222222222221</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="2"/>
+        <v>21.37037037037037</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="3"/>
+        <v>25.228395061728396</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="4"/>
+        <v>21.916666666666668</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>225414</v>
       </c>
@@ -3977,7 +4491,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1">
         <v>-95.098129</v>
@@ -4057,8 +4571,28 @@
       <c r="AE26">
         <v>45</v>
       </c>
+      <c r="AF26">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>11.916666666666666</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="2"/>
+        <v>9.6527777777777768</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="3"/>
+        <v>23.94212962962963</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>225432</v>
       </c>
@@ -4072,7 +4606,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="1">
         <v>-95.359337999999994</v>
@@ -4152,8 +4686,28 @@
       <c r="AE27">
         <v>19</v>
       </c>
+      <c r="AF27">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="1"/>
+        <v>10.222222222222221</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="2"/>
+        <v>22.37037037037037</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="3"/>
+        <v>37.561728395061728</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="4"/>
+        <v>22.916666666666668</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>225502</v>
       </c>
@@ -4167,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="1">
         <v>-96.978193000000005</v>
@@ -4247,8 +4801,28 @@
       <c r="AE28">
         <v>40</v>
       </c>
+      <c r="AF28">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="2"/>
+        <v>17.25</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="3"/>
+        <v>26.208333333333332</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>225511</v>
       </c>
@@ -4262,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F29" s="1">
         <v>-95.343536999999998</v>
@@ -4342,8 +4916,28 @@
       <c r="AE29">
         <v>32</v>
       </c>
+      <c r="AF29">
+        <f t="shared" si="0"/>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="1"/>
+        <v>21.305555555555554</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="2"/>
+        <v>12.217592592592593</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="3"/>
+        <v>24.369598765432098</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="4"/>
+        <v>21.666666666666668</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>225548</v>
       </c>
@@ -4357,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F30" s="1">
         <v>-98.985203999999996</v>
@@ -4437,8 +5031,28 @@
       <c r="AE30">
         <v>68</v>
       </c>
+      <c r="AF30">
+        <f t="shared" si="0"/>
+        <v>62.833333333333336</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="1"/>
+        <v>10.638888888888889</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="2"/>
+        <v>8.773148148148147</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="3"/>
+        <v>17.962191358024693</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="4"/>
+        <v>22.958333333333332</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>225575</v>
       </c>
@@ -4452,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1">
         <v>-97.721698000000004</v>
@@ -4532,8 +5146,28 @@
       <c r="AE31">
         <v>5</v>
       </c>
+      <c r="AF31">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="2"/>
+        <v>57.981481481481488</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="3"/>
+        <v>26.663580246913583</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="4"/>
+        <v>23.75</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>225627</v>
       </c>
@@ -4547,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F32" s="1">
         <v>-98.465829999999997</v>
@@ -4627,8 +5261,28 @@
       <c r="AE32">
         <v>23</v>
       </c>
+      <c r="AF32">
+        <f t="shared" si="0"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="1"/>
+        <v>7.0555555555555545</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="2"/>
+        <v>7.3425925925925926</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="3"/>
+        <v>45.723765432098766</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="4"/>
+        <v>21.75</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>225885</v>
       </c>
@@ -4642,7 +5296,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="1">
         <v>-95.181512999999995</v>
@@ -4722,8 +5376,28 @@
       <c r="AE33">
         <v>7</v>
       </c>
+      <c r="AF33">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="2"/>
+        <v>69.486111111111114</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="3"/>
+        <v>19.247685185185187</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="4"/>
+        <v>24.125</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>226091</v>
       </c>
@@ -4737,7 +5411,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F34" s="1">
         <v>-94.072243999999998</v>
@@ -4817,8 +5491,28 @@
       <c r="AE34">
         <v>52</v>
       </c>
+      <c r="AF34">
+        <f t="shared" si="0"/>
+        <v>48.833333333333336</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="1"/>
+        <v>10.805555555555557</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="2"/>
+        <v>22.134259259259256</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="3"/>
+        <v>14.522376543209875</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="4"/>
+        <v>22.541666666666668</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>226152</v>
       </c>
@@ -4832,7 +5526,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1">
         <v>-99.435225000000003</v>
@@ -4912,8 +5606,28 @@
       <c r="AE35">
         <v>2</v>
       </c>
+      <c r="AF35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="2"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="3"/>
+        <v>77.615740740740748</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="4"/>
+        <v>24.125</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>226231</v>
       </c>
@@ -4927,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" s="1">
         <v>-94.727260000000001</v>
@@ -5007,8 +5721,28 @@
       <c r="AE36">
         <v>62</v>
       </c>
+      <c r="AF36">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="2"/>
+        <v>11.25</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="3"/>
+        <v>9.2083333333333339</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="4"/>
+        <v>19.75</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>226383</v>
       </c>
@@ -5022,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F37" s="1">
         <v>-101.934426</v>
@@ -5102,8 +5836,28 @@
       <c r="AE37">
         <v>70</v>
       </c>
+      <c r="AF37">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="2"/>
+        <v>8.0416666666666661</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="3"/>
+        <v>18.673611111111111</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="4"/>
+        <v>24.375</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>226471</v>
       </c>
@@ -5117,7 +5871,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1">
         <v>-97.463479000000007</v>
@@ -5197,8 +5951,28 @@
       <c r="AE38">
         <v>63</v>
       </c>
+      <c r="AF38">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="1"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="2"/>
+        <v>13.111111111111112</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="3"/>
+        <v>16.018518518518519</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="4"/>
+        <v>22.166666666666668</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>226587</v>
       </c>
@@ -5212,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1">
         <v>-99.748682000000002</v>
@@ -5292,8 +6066,28 @@
       <c r="AE39">
         <v>59</v>
       </c>
+      <c r="AF39">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="2"/>
+        <v>15.453703703703704</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="3"/>
+        <v>20.908950617283953</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="4"/>
+        <v>23.291666666666668</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>226806</v>
       </c>
@@ -5307,7 +6101,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="1">
         <v>-102.10615300000001</v>
@@ -5387,8 +6181,28 @@
       <c r="AE40">
         <v>47</v>
       </c>
+      <c r="AF40">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="1"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="2"/>
+        <v>6.4444444444444438</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="3"/>
+        <v>37.907407407407412</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="4"/>
+        <v>23.75</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>226833</v>
       </c>
@@ -5402,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F41" s="1">
         <v>-98.519385999999997</v>
@@ -5482,8 +6296,28 @@
       <c r="AE41">
         <v>60</v>
       </c>
+      <c r="AF41">
+        <f t="shared" si="0"/>
+        <v>54.833333333333336</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="1"/>
+        <v>11.638888888888891</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="2"/>
+        <v>13.273148148148147</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="3"/>
+        <v>14.545524691358025</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="4"/>
+        <v>21.708333333333332</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>227216</v>
       </c>
@@ -5497,7 +6331,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F42" s="1">
         <v>-97.148421999999997</v>
@@ -5577,8 +6411,28 @@
       <c r="AE42">
         <v>54</v>
       </c>
+      <c r="AF42">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="1"/>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="3"/>
+        <v>18.037037037037038</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>227289</v>
       </c>
@@ -5592,7 +6446,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F43" s="1">
         <v>-98.503348000000003</v>
@@ -5672,8 +6526,28 @@
       <c r="AE43">
         <v>24</v>
       </c>
+      <c r="AF43">
+        <f t="shared" si="0"/>
+        <v>28.166666666666668</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="1"/>
+        <v>9.1944444444444446</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="2"/>
+        <v>6.1990740740740735</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="3"/>
+        <v>27.199845679012345</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="4"/>
+        <v>18.083333333333332</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>227331</v>
       </c>
@@ -5687,7 +6561,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="1">
         <v>-98.543949999999995</v>
@@ -5767,8 +6641,28 @@
       <c r="AE44">
         <v>22</v>
       </c>
+      <c r="AF44">
+        <f t="shared" si="0"/>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="1"/>
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="2"/>
+        <v>10.870370370370372</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="3"/>
+        <v>50.311728395061728</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="4"/>
+        <v>23.083333333333332</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>227368</v>
       </c>
@@ -5782,7 +6676,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F45" s="1">
         <v>-98.173567000000006</v>
@@ -5862,8 +6756,28 @@
       <c r="AE45">
         <v>4</v>
       </c>
+      <c r="AF45">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="1"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="2"/>
+        <v>1.0694444444444444</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="3"/>
+        <v>74.178240740740748</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="4"/>
+        <v>23.583333333333332</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>227429</v>
       </c>
@@ -5877,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" s="1">
         <v>-96.755864000000003</v>
@@ -5957,8 +6871,28 @@
       <c r="AE46">
         <v>1</v>
       </c>
+      <c r="AF46">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="2"/>
+        <v>68.370370370370367</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="3"/>
+        <v>23.728395061728396</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="4"/>
+        <v>24.583333333333332</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>227526</v>
       </c>
@@ -5972,7 +6906,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" s="1">
         <v>-95.989474999999999</v>
@@ -6052,8 +6986,28 @@
       <c r="AE47">
         <v>5</v>
       </c>
+      <c r="AF47">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="1"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="2"/>
+        <v>70.180555555555557</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="3"/>
+        <v>16.363425925925927</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="4"/>
+        <v>23.958333333333332</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>227757</v>
       </c>
@@ -6067,7 +7021,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F48" s="1">
         <v>-95.402034999999998</v>
@@ -6147,8 +7101,28 @@
       <c r="AE48">
         <v>40</v>
       </c>
+      <c r="AF48">
+        <f t="shared" si="0"/>
+        <v>37.833333333333336</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="1"/>
+        <v>20.138888888888889</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="2"/>
+        <v>7.5231481481481479</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="3"/>
+        <v>10.087191358024691</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="4"/>
+        <v>17.583333333333332</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>227845</v>
       </c>
@@ -6162,7 +7136,7 @@
         <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F49" s="1">
         <v>-97.757630000000006</v>
@@ -6242,8 +7216,28 @@
       <c r="AE49">
         <v>49</v>
       </c>
+      <c r="AF49">
+        <f t="shared" si="0"/>
+        <v>42.166666666666664</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="1"/>
+        <v>9.3611111111111107</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="2"/>
+        <v>5.2268518518518521</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="3"/>
+        <v>31.204475308641975</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="4"/>
+        <v>21.625</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>227863</v>
       </c>
@@ -6257,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="1">
         <v>-95.393101999999999</v>
@@ -6337,8 +7331,28 @@
       <c r="AE50">
         <v>34</v>
       </c>
+      <c r="AF50">
+        <f t="shared" si="0"/>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="1"/>
+        <v>12.277777777777779</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="2"/>
+        <v>11.712962962962962</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="3"/>
+        <v>30.118827160493826</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="4"/>
+        <v>21.375</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>227881</v>
       </c>
@@ -6352,7 +7366,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F51" s="1">
         <v>-95.546205</v>
@@ -6432,8 +7446,28 @@
       <c r="AE51">
         <v>59</v>
       </c>
+      <c r="AF51">
+        <f t="shared" si="0"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="1"/>
+        <v>10.222222222222223</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="2"/>
+        <v>16.203703703703706</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="3"/>
+        <v>18.533950617283953</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="4"/>
+        <v>23.208333333333332</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>228042</v>
       </c>
@@ -6447,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F52" s="1">
         <v>-99.130585999999994</v>
@@ -6527,8 +7561,28 @@
       <c r="AE52">
         <v>64</v>
       </c>
+      <c r="AF52">
+        <f t="shared" si="0"/>
+        <v>57.166666666666664</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="1"/>
+        <v>10.361111111111111</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="2"/>
+        <v>4.7268518518518521</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="3"/>
+        <v>26.787808641975307</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="4"/>
+        <v>23.541666666666668</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>228149</v>
       </c>
@@ -6542,7 +7596,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F53" s="1">
         <v>-98.562777999999994</v>
@@ -6622,8 +7676,28 @@
       <c r="AE53">
         <v>26</v>
       </c>
+      <c r="AF53">
+        <f t="shared" si="0"/>
+        <v>23.833333333333332</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="1"/>
+        <v>6.1388888888888884</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="2"/>
+        <v>4.3564814814814818</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="3"/>
+        <v>47.392746913580247</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="4"/>
+        <v>21.75</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>228194</v>
       </c>
@@ -6637,7 +7711,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F54" s="1">
         <v>-95.364549999999994</v>
@@ -6717,8 +7791,28 @@
       <c r="AE54">
         <v>68</v>
       </c>
+      <c r="AF54">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="2"/>
+        <v>7.958333333333333</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="3"/>
+        <v>15.993055555555555</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="4"/>
+        <v>23.041666666666668</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>228246</v>
       </c>
@@ -6732,7 +7826,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F55" s="1">
         <v>-96.784854999999993</v>
@@ -6812,8 +7906,28 @@
       <c r="AE55">
         <v>63</v>
       </c>
+      <c r="AF55">
+        <f t="shared" si="0"/>
+        <v>59.833333333333336</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="1"/>
+        <v>14.972222222222223</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="2"/>
+        <v>7.4953703703703702</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="3"/>
+        <v>9.7492283950617278</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="4"/>
+        <v>20.541666666666668</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>228325</v>
       </c>
@@ -6827,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F56" s="1">
         <v>-96.853492000000003</v>
@@ -6907,8 +8021,28 @@
       <c r="AE56">
         <v>67</v>
       </c>
+      <c r="AF56">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="1"/>
+        <v>11.416666666666666</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="2"/>
+        <v>10.902777777777779</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="3"/>
+        <v>17.983796296296294</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="4"/>
+        <v>23.625</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>228343</v>
       </c>
@@ -6922,7 +8056,7 @@
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F57" s="1">
         <v>-97.665738000000005</v>
@@ -7002,8 +8136,28 @@
       <c r="AE57">
         <v>71</v>
       </c>
+      <c r="AF57">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="1"/>
+        <v>13.916666666666666</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="2"/>
+        <v>6.3194444444444438</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" si="3"/>
+        <v>17.55324074074074</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="4"/>
+        <v>23.375</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>228431</v>
       </c>
@@ -7017,7 +8171,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F58" s="1">
         <v>-94.649079999999998</v>
@@ -7097,8 +8251,28 @@
       <c r="AE58">
         <v>59</v>
       </c>
+      <c r="AF58">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="1"/>
+        <v>10.583333333333334</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="2"/>
+        <v>18.597222222222221</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="3"/>
+        <v>14.932870370370372</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="4"/>
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>228459</v>
       </c>
@@ -7112,7 +8286,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F59" s="1">
         <v>-97.943028999999996</v>
@@ -7192,8 +8366,28 @@
       <c r="AE59">
         <v>57</v>
       </c>
+      <c r="AF59">
+        <f t="shared" si="0"/>
+        <v>51.333333333333336</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="1"/>
+        <v>10.222222222222223</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="2"/>
+        <v>8.2037037037037042</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="3"/>
+        <v>27.700617283950617</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="4"/>
+        <v>23.458333333333332</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>228468</v>
       </c>
@@ -7207,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F60" s="1">
         <v>-97.327020000000005</v>
@@ -7287,8 +8481,28 @@
       <c r="AE60">
         <v>25</v>
       </c>
+      <c r="AF60">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="2"/>
+        <v>13.583333333333334</v>
+      </c>
+      <c r="AI60">
+        <f t="shared" si="3"/>
+        <v>35.930555555555557</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="4"/>
+        <v>20.75</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>228486</v>
       </c>
@@ -7302,7 +8516,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F61" s="1">
         <v>-96.285649000000006</v>
@@ -7382,8 +8596,28 @@
       <c r="AE61">
         <v>1</v>
       </c>
+      <c r="AF61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="2"/>
+        <v>65.527777777777786</v>
+      </c>
+      <c r="AI61">
+        <f t="shared" si="3"/>
+        <v>17.421296296296298</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" si="4"/>
+        <v>22.375</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>228501</v>
       </c>
@@ -7397,7 +8631,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F62" s="1">
         <v>-103.65146900000001</v>
@@ -7477,8 +8711,28 @@
       <c r="AE62">
         <v>30</v>
       </c>
+      <c r="AF62">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="1"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="2"/>
+        <v>5.6388888888888893</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="3"/>
+        <v>52.773148148148152</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="4"/>
+        <v>24.041666666666668</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>228529</v>
       </c>
@@ -7492,7 +8746,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F63" s="1">
         <v>-98.214866000000001</v>
@@ -7572,8 +8826,28 @@
       <c r="AE63">
         <v>61</v>
       </c>
+      <c r="AF63">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="1"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="2"/>
+        <v>9.1574074074074066</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" si="3"/>
+        <v>14.1929012345679</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="4"/>
+        <v>23.041666666666668</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>228635</v>
       </c>
@@ -7587,7 +8861,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" s="1">
         <v>-96.841155999999998</v>
@@ -7667,8 +8941,28 @@
       <c r="AE64">
         <v>39</v>
       </c>
+      <c r="AF64">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AG64">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
+      </c>
+      <c r="AH64">
+        <f t="shared" si="2"/>
+        <v>6.083333333333333</v>
+      </c>
+      <c r="AI64">
+        <f t="shared" si="3"/>
+        <v>7.8472222222222223</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>228644</v>
       </c>
@@ -7682,7 +8976,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F65" s="1">
         <v>-98.576059999999998</v>
@@ -7762,8 +9056,28 @@
       <c r="AE65">
         <v>46</v>
       </c>
+      <c r="AF65">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" si="1"/>
+        <v>18.083333333333332</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" si="2"/>
+        <v>7.0138888888888884</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" si="3"/>
+        <v>24.002314814814813</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="4"/>
+        <v>22.291666666666668</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>228653</v>
       </c>
@@ -7777,7 +9091,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F66" s="1">
         <v>-94.775955999999994</v>
@@ -7857,8 +9171,28 @@
       <c r="AE66">
         <v>48</v>
       </c>
+      <c r="AF66">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="1"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="2"/>
+        <v>12.222222222222221</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="3"/>
+        <v>15.703703703703704</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" si="4"/>
+        <v>22.541666666666668</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>228705</v>
       </c>
@@ -7872,7 +9206,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F67" s="1">
         <v>-97.882386999999994</v>
@@ -7952,8 +9286,28 @@
       <c r="AE67">
         <v>21</v>
       </c>
+      <c r="AF67">
+        <f t="shared" ref="AF67:AF108" si="5">(K67+O67+S67+W67+AA67+AE67)/6</f>
+        <v>17</v>
+      </c>
+      <c r="AG67">
+        <f t="shared" ref="AG67:AG109" si="6">(L67+P67+T67+X67+AB67+AF67)/6</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AH67">
+        <f t="shared" ref="AH67:AH109" si="7">(M67+Q67+U67+Y67+AC67+AG67)/6</f>
+        <v>5.2777777777777777</v>
+      </c>
+      <c r="AI67">
+        <f t="shared" ref="AI67:AI109" si="8">(N67+R67+V67+Z67+AD67+AH67)/6</f>
+        <v>51.712962962962962</v>
+      </c>
+      <c r="AJ67">
+        <f t="shared" ref="AJ67:AJ109" si="9">SUM(H67:AE67)/COUNT(H67:AE67)</f>
+        <v>21.291666666666668</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>228723</v>
       </c>
@@ -7967,7 +9321,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F68" s="1">
         <v>-96.336474999999993</v>
@@ -8047,8 +9401,28 @@
       <c r="AE68">
         <v>64</v>
       </c>
+      <c r="AF68">
+        <f t="shared" si="5"/>
+        <v>60.5</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="6"/>
+        <v>14.916666666666666</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="7"/>
+        <v>4.9861111111111107</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="8"/>
+        <v>15.831018518518519</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>228769</v>
       </c>
@@ -8062,7 +9436,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1">
         <v>-97.112960000000001</v>
@@ -8142,8 +9516,28 @@
       <c r="AE69">
         <v>42</v>
       </c>
+      <c r="AF69">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" si="6"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="AH69">
+        <f t="shared" si="7"/>
+        <v>14.111111111111112</v>
+      </c>
+      <c r="AI69">
+        <f t="shared" si="8"/>
+        <v>20.185185185185187</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" si="9"/>
+        <v>21.166666666666668</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>228778</v>
       </c>
@@ -8157,7 +9551,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" s="1">
         <v>-97.738273000000007</v>
@@ -8237,8 +9631,28 @@
       <c r="AE70">
         <v>50</v>
       </c>
+      <c r="AF70">
+        <f t="shared" si="5"/>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="6"/>
+        <v>21.138888888888889</v>
+      </c>
+      <c r="AH70">
+        <f t="shared" si="7"/>
+        <v>6.856481481481481</v>
+      </c>
+      <c r="AI70">
+        <f t="shared" si="8"/>
+        <v>17.142746913580247</v>
+      </c>
+      <c r="AJ70">
+        <f t="shared" si="9"/>
+        <v>21.416666666666668</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>228787</v>
       </c>
@@ -8252,7 +9666,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F71" s="1">
         <v>-96.749701999999999</v>
@@ -8332,8 +9746,28 @@
       <c r="AE71">
         <v>38</v>
       </c>
+      <c r="AF71">
+        <f t="shared" si="5"/>
+        <v>33.166666666666664</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" si="6"/>
+        <v>22.194444444444443</v>
+      </c>
+      <c r="AH71">
+        <f t="shared" si="7"/>
+        <v>7.8657407407407405</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" si="8"/>
+        <v>11.977623456790122</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" si="9"/>
+        <v>17.916666666666668</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>228796</v>
       </c>
@@ -8347,7 +9781,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" s="1">
         <v>-106.50355999999999</v>
@@ -8427,8 +9861,28 @@
       <c r="AE72">
         <v>10</v>
       </c>
+      <c r="AF72">
+        <f t="shared" si="5"/>
+        <v>8.5</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="AH72">
+        <f t="shared" si="7"/>
+        <v>2.875</v>
+      </c>
+      <c r="AI72">
+        <f t="shared" si="8"/>
+        <v>66.479166666666671</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" si="9"/>
+        <v>22.958333333333332</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>228802</v>
       </c>
@@ -8442,7 +9896,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" s="1">
         <v>-95.254337000000007</v>
@@ -8522,8 +9976,28 @@
       <c r="AE73">
         <v>66</v>
       </c>
+      <c r="AF73">
+        <f t="shared" si="5"/>
+        <v>60.5</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="6"/>
+        <v>12.916666666666666</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="7"/>
+        <v>10.652777777777777</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="8"/>
+        <v>13.608796296296296</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" si="9"/>
+        <v>22.291666666666668</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>228866</v>
       </c>
@@ -8537,7 +10011,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F74" s="1">
         <v>-95.150120000000001</v>
@@ -8617,8 +10091,28 @@
       <c r="AE74">
         <v>56</v>
       </c>
+      <c r="AF74">
+        <f t="shared" si="5"/>
+        <v>55.333333333333336</v>
+      </c>
+      <c r="AG74">
+        <f t="shared" si="6"/>
+        <v>16.388888888888889</v>
+      </c>
+      <c r="AH74">
+        <f t="shared" si="7"/>
+        <v>13.898148148148147</v>
+      </c>
+      <c r="AI74">
+        <f t="shared" si="8"/>
+        <v>13.316358024691359</v>
+      </c>
+      <c r="AJ74">
+        <f t="shared" si="9"/>
+        <v>22.791666666666668</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>228875</v>
       </c>
@@ -8632,7 +10126,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F75" s="1">
         <v>-97.361536999999998</v>
@@ -8712,8 +10206,28 @@
       <c r="AE75">
         <v>73</v>
       </c>
+      <c r="AF75">
+        <f t="shared" si="5"/>
+        <v>71.833333333333329</v>
+      </c>
+      <c r="AG75">
+        <f t="shared" si="6"/>
+        <v>14.138888888888888</v>
+      </c>
+      <c r="AH75">
+        <f t="shared" si="7"/>
+        <v>6.5231481481481479</v>
+      </c>
+      <c r="AI75">
+        <f t="shared" si="8"/>
+        <v>10.087191358024691</v>
+      </c>
+      <c r="AJ75">
+        <f t="shared" si="9"/>
+        <v>22.708333333333332</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>228884</v>
       </c>
@@ -8727,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F76" s="1">
         <v>-95.312454000000002</v>
@@ -8807,8 +10321,28 @@
       <c r="AE76">
         <v>3</v>
       </c>
+      <c r="AF76">
+        <f t="shared" si="5"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="6"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="AH76">
+        <f t="shared" si="7"/>
+        <v>72.087962962962962</v>
+      </c>
+      <c r="AI76">
+        <f t="shared" si="8"/>
+        <v>19.181327160493826</v>
+      </c>
+      <c r="AJ76">
+        <f t="shared" si="9"/>
+        <v>24.541666666666668</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>228909</v>
       </c>
@@ -8822,7 +10356,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F77" s="1">
         <v>-97.369138000000007</v>
@@ -8902,8 +10436,28 @@
       <c r="AE77">
         <v>49</v>
       </c>
+      <c r="AF77">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AG77">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AH77">
+        <f t="shared" si="7"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="AI77">
+        <f t="shared" si="8"/>
+        <v>11.972222222222221</v>
+      </c>
+      <c r="AJ77">
+        <f t="shared" si="9"/>
+        <v>22.25</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>228981</v>
       </c>
@@ -8917,7 +10471,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F78" s="1">
         <v>-97.982669000000001</v>
@@ -8997,8 +10551,28 @@
       <c r="AE78">
         <v>57</v>
       </c>
+      <c r="AF78">
+        <f t="shared" si="5"/>
+        <v>54.833333333333336</v>
+      </c>
+      <c r="AG78">
+        <f t="shared" si="6"/>
+        <v>9.9722222222222232</v>
+      </c>
+      <c r="AH78">
+        <f t="shared" si="7"/>
+        <v>8.6620370370370363</v>
+      </c>
+      <c r="AI78">
+        <f t="shared" si="8"/>
+        <v>27.110339506172838</v>
+      </c>
+      <c r="AJ78">
+        <f t="shared" si="9"/>
+        <v>23.958333333333332</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>229018</v>
       </c>
@@ -9012,7 +10586,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F79" s="1">
         <v>-102.329634</v>
@@ -9092,8 +10666,28 @@
       <c r="AE79">
         <v>46</v>
       </c>
+      <c r="AF79">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="AH79">
+        <f t="shared" si="7"/>
+        <v>6.25</v>
+      </c>
+      <c r="AI79">
+        <f t="shared" si="8"/>
+        <v>35.875</v>
+      </c>
+      <c r="AJ79">
+        <f t="shared" si="9"/>
+        <v>23.208333333333332</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>229027</v>
       </c>
@@ -9107,7 +10701,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F80" s="1">
         <v>-98.621386000000001</v>
@@ -9187,8 +10781,28 @@
       <c r="AE80">
         <v>31</v>
       </c>
+      <c r="AF80">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="AG80">
+        <f t="shared" si="6"/>
+        <v>8.75</v>
+      </c>
+      <c r="AH80">
+        <f t="shared" si="7"/>
+        <v>8.7916666666666661</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" si="8"/>
+        <v>41.631944444444443</v>
+      </c>
+      <c r="AJ80">
+        <f t="shared" si="9"/>
+        <v>22.583333333333332</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>229063</v>
       </c>
@@ -9202,7 +10816,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F81" s="1">
         <v>-95.361960999999994</v>
@@ -9282,8 +10896,28 @@
       <c r="AE81">
         <v>3</v>
       </c>
+      <c r="AF81">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AG81">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="AH81">
+        <f t="shared" si="7"/>
+        <v>65.916666666666671</v>
+      </c>
+      <c r="AI81">
+        <f t="shared" si="8"/>
+        <v>16.652777777777779</v>
+      </c>
+      <c r="AJ81">
+        <f t="shared" si="9"/>
+        <v>23.125</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>229115</v>
       </c>
@@ -9297,7 +10931,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F82" s="1">
         <v>-101.87478299999999</v>
@@ -9377,8 +11011,28 @@
       <c r="AE82">
         <v>64</v>
       </c>
+      <c r="AF82">
+        <f t="shared" si="5"/>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="AG82">
+        <f t="shared" si="6"/>
+        <v>11.944444444444443</v>
+      </c>
+      <c r="AH82">
+        <f t="shared" si="7"/>
+        <v>6.8240740740740735</v>
+      </c>
+      <c r="AI82">
+        <f t="shared" si="8"/>
+        <v>17.804012345679013</v>
+      </c>
+      <c r="AJ82">
+        <f t="shared" si="9"/>
+        <v>22.166666666666668</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>229160</v>
       </c>
@@ -9392,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F83" s="1">
         <v>-97.279612999999998</v>
@@ -9472,8 +11126,28 @@
       <c r="AE83">
         <v>51</v>
       </c>
+      <c r="AF83">
+        <f t="shared" si="5"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="AG83">
+        <f t="shared" si="6"/>
+        <v>8.7222222222222232</v>
+      </c>
+      <c r="AH83">
+        <f t="shared" si="7"/>
+        <v>12.787037037037038</v>
+      </c>
+      <c r="AI83">
+        <f t="shared" si="8"/>
+        <v>19.131172839506174</v>
+      </c>
+      <c r="AJ83">
+        <f t="shared" si="9"/>
+        <v>19.5</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>229179</v>
       </c>
@@ -9487,7 +11161,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F84" s="1">
         <v>-97.129087999999996</v>
@@ -9567,8 +11241,28 @@
       <c r="AE84">
         <v>47</v>
       </c>
+      <c r="AF84">
+        <f t="shared" si="5"/>
+        <v>44.5</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="6"/>
+        <v>14.583333333333334</v>
+      </c>
+      <c r="AH84">
+        <f t="shared" si="7"/>
+        <v>18.597222222222221</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" si="8"/>
+        <v>20.43287037037037</v>
+      </c>
+      <c r="AJ84">
+        <f t="shared" si="9"/>
+        <v>23.416666666666668</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>229267</v>
       </c>
@@ -9582,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F85" s="1">
         <v>-98.482577000000006</v>
@@ -9662,8 +11356,28 @@
       <c r="AE85">
         <v>59</v>
       </c>
+      <c r="AF85">
+        <f t="shared" si="5"/>
+        <v>56.166666666666664</v>
+      </c>
+      <c r="AG85">
+        <f t="shared" si="6"/>
+        <v>14.694444444444443</v>
+      </c>
+      <c r="AH85">
+        <f t="shared" si="7"/>
+        <v>5.6157407407407405</v>
+      </c>
+      <c r="AI85">
+        <f t="shared" si="8"/>
+        <v>16.435956790123456</v>
+      </c>
+      <c r="AJ85">
+        <f t="shared" si="9"/>
+        <v>21.375</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>229300</v>
       </c>
@@ -9677,7 +11391,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F86" s="1">
         <v>-95.403182999999999</v>
@@ -9757,8 +11471,28 @@
       <c r="AE86">
         <v>49</v>
       </c>
+      <c r="AF86">
+        <f t="shared" si="5"/>
+        <v>41.5</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="6"/>
+        <v>19.75</v>
+      </c>
+      <c r="AH86">
+        <f t="shared" si="7"/>
+        <v>10.291666666666666</v>
+      </c>
+      <c r="AI86">
+        <f t="shared" si="8"/>
+        <v>13.548611111111112</v>
+      </c>
+      <c r="AJ86">
+        <f t="shared" si="9"/>
+        <v>20.291666666666668</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>229337</v>
       </c>
@@ -9772,7 +11506,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F87" s="1">
         <v>-101.891915</v>
@@ -9852,8 +11586,28 @@
       <c r="AE87">
         <v>58</v>
       </c>
+      <c r="AF87">
+        <f t="shared" si="5"/>
+        <v>52.166666666666664</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="6"/>
+        <v>20.861111111111111</v>
+      </c>
+      <c r="AH87">
+        <f t="shared" si="7"/>
+        <v>8.976851851851853</v>
+      </c>
+      <c r="AI87">
+        <f t="shared" si="8"/>
+        <v>15.162808641975309</v>
+      </c>
+      <c r="AJ87">
+        <f t="shared" si="9"/>
+        <v>22.416666666666668</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>229355</v>
       </c>
@@ -9867,7 +11621,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F88" s="1">
         <v>-95.284128999999993</v>
@@ -9947,8 +11701,28 @@
       <c r="AE88">
         <v>59</v>
       </c>
+      <c r="AF88">
+        <f t="shared" si="5"/>
+        <v>55.5</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="6"/>
+        <v>10.25</v>
+      </c>
+      <c r="AH88">
+        <f t="shared" si="7"/>
+        <v>20.041666666666668</v>
+      </c>
+      <c r="AI88">
+        <f t="shared" si="8"/>
+        <v>16.673611111111111</v>
+      </c>
+      <c r="AJ88">
+        <f t="shared" si="9"/>
+        <v>23.875</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>229780</v>
       </c>
@@ -9962,7 +11736,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F89" s="1">
         <v>-101.730042</v>
@@ -10042,8 +11816,28 @@
       <c r="AE89">
         <v>47</v>
       </c>
+      <c r="AF89">
+        <f t="shared" si="5"/>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="6"/>
+        <v>9.0555555555555554</v>
+      </c>
+      <c r="AH89">
+        <f t="shared" si="7"/>
+        <v>15.50925925925926</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="8"/>
+        <v>23.918209876543212</v>
+      </c>
+      <c r="AJ89">
+        <f t="shared" si="9"/>
+        <v>22.375</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>229814</v>
       </c>
@@ -10057,7 +11851,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F90" s="1">
         <v>-101.914736</v>
@@ -10137,8 +11931,28 @@
       <c r="AE90">
         <v>67</v>
       </c>
+      <c r="AF90">
+        <f t="shared" si="5"/>
+        <v>62.333333333333336</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="6"/>
+        <v>11.888888888888891</v>
+      </c>
+      <c r="AH90">
+        <f t="shared" si="7"/>
+        <v>6.6481481481481488</v>
+      </c>
+      <c r="AI90">
+        <f t="shared" si="8"/>
+        <v>20.108024691358025</v>
+      </c>
+      <c r="AJ90">
+        <f t="shared" si="9"/>
+        <v>23.25</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>229887</v>
       </c>
@@ -10152,7 +11966,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F91" s="1">
         <v>-94.376821000000007</v>
@@ -10232,8 +12046,28 @@
       <c r="AE91">
         <v>2</v>
       </c>
+      <c r="AF91">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH91">
+        <f t="shared" si="7"/>
+        <v>69.888888888888886</v>
+      </c>
+      <c r="AI91">
+        <f t="shared" si="8"/>
+        <v>15.981481481481481</v>
+      </c>
+      <c r="AJ91">
+        <f t="shared" si="9"/>
+        <v>22.666666666666668</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>243823</v>
       </c>
@@ -10247,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F92" s="1">
         <v>-96.893572000000006</v>
@@ -10327,8 +12161,28 @@
       <c r="AE92">
         <v>64</v>
       </c>
+      <c r="AF92">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="6"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="AH92">
+        <f t="shared" si="7"/>
+        <v>12.722222222222221</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" si="8"/>
+        <v>12.453703703703704</v>
+      </c>
+      <c r="AJ92">
+        <f t="shared" si="9"/>
+        <v>23.375</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>246345</v>
       </c>
@@ -10342,7 +12196,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F93" s="1">
         <v>-95.448846000000003</v>
@@ -10422,8 +12276,28 @@
       <c r="AE93">
         <v>34</v>
       </c>
+      <c r="AF93">
+        <f t="shared" si="5"/>
+        <v>25.5</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="6"/>
+        <v>8.0833333333333339</v>
+      </c>
+      <c r="AH93">
+        <f t="shared" si="7"/>
+        <v>49.013888888888886</v>
+      </c>
+      <c r="AI93">
+        <f t="shared" si="8"/>
+        <v>12.668981481481481</v>
+      </c>
+      <c r="AJ93">
+        <f t="shared" si="9"/>
+        <v>23.5</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>247825</v>
       </c>
@@ -10437,7 +12311,7 @@
         <v>2</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F94" s="1">
         <v>-97.711706000000007</v>
@@ -10517,8 +12391,28 @@
       <c r="AE94">
         <v>43</v>
       </c>
+      <c r="AF94">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AH94">
+        <f t="shared" si="7"/>
+        <v>41.222222222222221</v>
+      </c>
+      <c r="AI94">
+        <f t="shared" si="8"/>
+        <v>13.370370370370372</v>
+      </c>
+      <c r="AJ94">
+        <f t="shared" si="9"/>
+        <v>24.625</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>377111</v>
       </c>
@@ -10532,7 +12426,7 @@
         <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F95" s="1">
         <v>-97.213561999999996</v>
@@ -10612,8 +12506,28 @@
       <c r="AE95">
         <v>42</v>
       </c>
+      <c r="AF95">
+        <f t="shared" si="5"/>
+        <v>32.166666666666664</v>
+      </c>
+      <c r="AG95">
+        <f t="shared" si="6"/>
+        <v>7.0277777777777777</v>
+      </c>
+      <c r="AH95">
+        <f t="shared" si="7"/>
+        <v>25.671296296296294</v>
+      </c>
+      <c r="AI95">
+        <f t="shared" si="8"/>
+        <v>30.945216049382719</v>
+      </c>
+      <c r="AJ95">
+        <f t="shared" si="9"/>
+        <v>24.083333333333332</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>388520</v>
       </c>
@@ -10627,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F96" s="1">
         <v>-95.506566000000007</v>
@@ -10707,8 +12621,28 @@
       <c r="AE96">
         <v>19</v>
       </c>
+      <c r="AF96">
+        <f t="shared" si="5"/>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="6"/>
+        <v>3.8055555555555558</v>
+      </c>
+      <c r="AH96">
+        <f t="shared" si="7"/>
+        <v>42.467592592592588</v>
+      </c>
+      <c r="AI96">
+        <f t="shared" si="8"/>
+        <v>31.07793209876543</v>
+      </c>
+      <c r="AJ96">
+        <f t="shared" si="9"/>
+        <v>24.041666666666668</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>409315</v>
       </c>
@@ -10722,7 +12656,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F97" s="1">
         <v>-98.253634000000005</v>
@@ -10802,8 +12736,28 @@
       <c r="AE97">
         <v>3</v>
       </c>
+      <c r="AF97">
+        <f t="shared" si="5"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="6"/>
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="AH97">
+        <f t="shared" si="7"/>
+        <v>0.21759259259259259</v>
+      </c>
+      <c r="AI97">
+        <f t="shared" si="8"/>
+        <v>77.70293209876543</v>
+      </c>
+      <c r="AJ97">
+        <f t="shared" si="9"/>
+        <v>24.333333333333332</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>416801</v>
       </c>
@@ -10817,7 +12771,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F98" s="1">
         <v>-95.396804000000003</v>
@@ -10897,8 +12851,28 @@
       <c r="AE98">
         <v>37</v>
       </c>
+      <c r="AF98">
+        <f t="shared" si="5"/>
+        <v>28.666666666666668</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="6"/>
+        <v>23.611111111111111</v>
+      </c>
+      <c r="AH98">
+        <f t="shared" si="7"/>
+        <v>13.268518518518519</v>
+      </c>
+      <c r="AI98">
+        <f t="shared" si="8"/>
+        <v>21.044753086419753</v>
+      </c>
+      <c r="AJ98">
+        <f t="shared" si="9"/>
+        <v>21.75</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>417752</v>
       </c>
@@ -10912,7 +12886,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F99" s="1">
         <v>-97.100318000000001</v>
@@ -10992,8 +12966,28 @@
       <c r="AE99">
         <v>86</v>
       </c>
+      <c r="AF99">
+        <f t="shared" si="5"/>
+        <v>66.5</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="6"/>
+        <v>11.416666666666666</v>
+      </c>
+      <c r="AH99">
+        <f t="shared" si="7"/>
+        <v>16.569444444444446</v>
+      </c>
+      <c r="AI99">
+        <f t="shared" si="8"/>
+        <v>10.42824074074074</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" si="9"/>
+        <v>22.875</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>420705</v>
       </c>
@@ -11007,7 +13001,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F100" s="1">
         <v>-96.753975999999994</v>
@@ -11087,8 +13081,28 @@
       <c r="AE100">
         <v>30</v>
       </c>
+      <c r="AF100">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="6"/>
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="AH100">
+        <f t="shared" si="7"/>
+        <v>35.986111111111107</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" si="8"/>
+        <v>9.9976851851851851</v>
+      </c>
+      <c r="AJ100">
+        <f t="shared" si="9"/>
+        <v>19.166666666666668</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>437732</v>
       </c>
@@ -11102,7 +13116,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F101" s="1">
         <v>-96.734877999999995</v>
@@ -11182,8 +13196,28 @@
       <c r="AE101">
         <v>15</v>
       </c>
+      <c r="AF101">
+        <f t="shared" si="5"/>
+        <v>16.833333333333332</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="6"/>
+        <v>7.3055555555555545</v>
+      </c>
+      <c r="AH101">
+        <f t="shared" si="7"/>
+        <v>52.050925925925924</v>
+      </c>
+      <c r="AI101">
+        <f t="shared" si="8"/>
+        <v>15.675154320987653</v>
+      </c>
+      <c r="AJ101">
+        <f t="shared" si="9"/>
+        <v>23.208333333333332</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>439701</v>
       </c>
@@ -11197,7 +13231,7 @@
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F102" s="1">
         <v>-97.121526000000003</v>
@@ -11277,8 +13311,28 @@
       <c r="AE102">
         <v>57</v>
       </c>
+      <c r="AF102">
+        <f t="shared" si="5"/>
+        <v>58.833333333333336</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="6"/>
+        <v>13.805555555555557</v>
+      </c>
+      <c r="AH102">
+        <f t="shared" si="7"/>
+        <v>14.467592592592593</v>
+      </c>
+      <c r="AI102">
+        <f t="shared" si="8"/>
+        <v>12.2445987654321</v>
+      </c>
+      <c r="AJ102">
+        <f t="shared" si="9"/>
+        <v>22.583333333333332</v>
+      </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>444398</v>
       </c>
@@ -11292,7 +13346,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F103" s="1">
         <v>-98.546081000000001</v>
@@ -11372,8 +13426,28 @@
       <c r="AE103">
         <v>6</v>
       </c>
+      <c r="AF103">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="6"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AH103">
+        <f t="shared" si="7"/>
+        <v>2.5555555555555558</v>
+      </c>
+      <c r="AI103">
+        <f t="shared" si="8"/>
+        <v>59.592592592592588</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" si="9"/>
+        <v>19.916666666666668</v>
+      </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>445203</v>
       </c>
@@ -11387,7 +13461,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F104" s="1">
         <v>-95.424916999999994</v>
@@ -11467,8 +13541,28 @@
       <c r="AE104">
         <v>16</v>
       </c>
+      <c r="AF104">
+        <f t="shared" si="5"/>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="6"/>
+        <v>2.1944444444444442</v>
+      </c>
+      <c r="AH104">
+        <f t="shared" si="7"/>
+        <v>34.032407407407412</v>
+      </c>
+      <c r="AI104">
+        <f t="shared" si="8"/>
+        <v>43.505401234567898</v>
+      </c>
+      <c r="AJ104">
+        <f t="shared" si="9"/>
+        <v>24.291666666666668</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>450304</v>
       </c>
@@ -11482,7 +13576,7 @@
         <v>2</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F105" s="1">
         <v>-97.361560999999995</v>
@@ -11562,8 +13656,28 @@
       <c r="AE105">
         <v>75</v>
       </c>
+      <c r="AF105">
+        <f t="shared" si="5"/>
+        <v>71.166666666666671</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="6"/>
+        <v>13.527777777777779</v>
+      </c>
+      <c r="AH105">
+        <f t="shared" si="7"/>
+        <v>13.421296296296296</v>
+      </c>
+      <c r="AI105">
+        <f t="shared" si="8"/>
+        <v>5.4035493827160499</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" si="9"/>
+        <v>22.75</v>
+      </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>459949</v>
       </c>
@@ -11577,7 +13691,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F106" s="1">
         <v>-98.524169999999998</v>
@@ -11621,8 +13735,28 @@
       <c r="S106">
         <v>23</v>
       </c>
+      <c r="AF106">
+        <f t="shared" si="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+      <c r="AH106">
+        <f t="shared" si="7"/>
+        <v>2.625</v>
+      </c>
+      <c r="AI106">
+        <f t="shared" si="8"/>
+        <v>21.4375</v>
+      </c>
+      <c r="AJ106">
+        <f t="shared" si="9"/>
+        <v>22.833333333333332</v>
+      </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>461795</v>
       </c>
@@ -11636,7 +13770,7 @@
         <v>2</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F107" s="1">
         <v>-95.588337999999993</v>
@@ -11716,8 +13850,28 @@
       <c r="AE107">
         <v>9</v>
       </c>
+      <c r="AF107">
+        <f t="shared" si="5"/>
+        <v>18.5</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="6"/>
+        <v>5.75</v>
+      </c>
+      <c r="AH107">
+        <f t="shared" si="7"/>
+        <v>12.291666666666666</v>
+      </c>
+      <c r="AI107">
+        <f t="shared" si="8"/>
+        <v>14.215277777777779</v>
+      </c>
+      <c r="AJ107">
+        <f t="shared" si="9"/>
+        <v>12.083333333333334</v>
+      </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>475185</v>
       </c>
@@ -11731,7 +13885,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F108" s="1">
         <v>-98.172194000000005</v>
@@ -11799,8 +13953,28 @@
       <c r="AE108">
         <v>9</v>
       </c>
+      <c r="AF108">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG108">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AH108">
+        <f t="shared" si="7"/>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" si="8"/>
+        <v>12.682870370370372</v>
+      </c>
+      <c r="AJ108">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>475608</v>
       </c>
@@ -11814,7 +13988,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F109" s="1">
         <v>-96.776690000000002</v>
@@ -11894,8 +14068,28 @@
       <c r="AE109">
         <v>63</v>
       </c>
+      <c r="AF109">
+        <f>(K109+O109+S109+W109+AA109+AE109)/6</f>
+        <v>55.833333333333336</v>
+      </c>
+      <c r="AG109">
+        <f t="shared" si="6"/>
+        <v>13.472222222222223</v>
+      </c>
+      <c r="AH109">
+        <f t="shared" si="7"/>
+        <v>18.74537037037037</v>
+      </c>
+      <c r="AI109">
+        <f t="shared" si="8"/>
+        <v>11.790895061728394</v>
+      </c>
+      <c r="AJ109">
+        <f t="shared" si="9"/>
+        <v>22.541666666666668</v>
+      </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>481401</v>
       </c>
@@ -11909,7 +14103,7 @@
         <v>2</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F110" s="1">
         <v>-95.472493</v>
@@ -11978,7 +14172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>483036</v>
       </c>
@@ -11992,7 +14186,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F111" s="1">
         <v>-97.775182000000001</v>
@@ -12061,7 +14255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>484905</v>
       </c>
@@ -12075,7 +14269,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F112" s="1">
         <v>-96.803445999999994</v>
@@ -12146,7 +14340,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F113" s="1">
         <v>-95.213526000000002</v>
